--- a/Sprint Burndown chart.xlsx
+++ b/Sprint Burndown chart.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkron/Documents/GitHub/HVLtopia/HVLtopia-31/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkron\Documents\GitHub\HVLtopia-31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EC986F-28E8-A94E-97AF-E987C0BB4860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03F709B-093E-4DE8-90A8-43036D717DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="780" windowWidth="30240" windowHeight="18880" xr2:uid="{90D799E6-531E-E847-ADA3-29FFA9E53BDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{90D799E6-531E-E847-ADA3-29FFA9E53BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$27:$P$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$28:$P$28</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Backlog ID</t>
   </si>
@@ -56,9 +60,6 @@
     <t>Dag 3</t>
   </si>
   <si>
-    <t>Spring Burndown Chart</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gjenstående </t>
   </si>
   <si>
@@ -68,9 +69,6 @@
     <t>https://www.youtube.com/watch?v=J17dOgmjS2c</t>
   </si>
   <si>
-    <t>Video:</t>
-  </si>
-  <si>
     <t>Dag 4</t>
   </si>
   <si>
@@ -168,24 +166,22 @@
   </si>
   <si>
     <t>ID 23</t>
+  </si>
+  <si>
+    <t>Sprint Burndown Chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow (Body)"/>
     </font>
     <font>
       <sz val="12"/>
@@ -207,13 +203,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="23">
@@ -533,118 +573,144 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -656,8 +722,1156 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Sprint Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gjenstående </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-336F-4206-AE6C-11A5E0B43A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.81818181818182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4545454545454533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7272727272727266</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-336F-4206-AE6C-11A5E0B43A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1994925888"/>
+        <c:axId val="1994926848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1994925888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1994926848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1994926848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1994925888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>616323</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC870A2-2F3C-B6A0-A570-5306CF0EA0C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -973,643 +2187,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031C03A7-9A6B-F24E-88ED-0C80ADC05365}">
-  <dimension ref="B1:P31"/>
+  <dimension ref="B1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+    <row r="1" spans="2:16" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:16" ht="27" thickBot="1">
+      <c r="B2" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:16">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="27">
+      <c r="D3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="25">
         <v>45526</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <v>45533</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>45540</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="25">
         <v>45547</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="25">
         <v>45554</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="25">
         <v>45561</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="25">
         <v>45568</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="25">
         <v>45575</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="25">
         <v>45582</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="25">
         <v>45589</v>
       </c>
       <c r="P3" s="26">
         <v>45596</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="2:16">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="H4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="I4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="J4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="K4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="L4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="M4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="N4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="O4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="P4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="34" t="s">
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="39">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="2" t="s">
+    <row r="7" spans="2:16">
+      <c r="B7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="39">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="13"/>
+      <c r="C9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="39">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="14"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="39">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="5"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9" t="s">
+    <row r="11" spans="2:16">
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="13"/>
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="39">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="14"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="39">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="13"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="10"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="2" t="s">
+    <row r="15" spans="2:16">
+      <c r="B15" s="12"/>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="39">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="12"/>
+      <c r="C18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="39">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="12"/>
+      <c r="C21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="39">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="13"/>
+      <c r="C24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="14"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="39">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B26" s="15"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36">
+        <f>SUM(E6:E26)</f>
         <v>41</v>
       </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="13"/>
+      <c r="F27" s="36">
+        <f>E27-SUM(F6:F26)</f>
+        <v>39</v>
+      </c>
+      <c r="G27" s="36">
+        <f t="shared" ref="G27:P27" si="0">F27-SUM(G6:G26)</f>
+        <v>39</v>
+      </c>
+      <c r="H27" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I27" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J27" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K27" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L27" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="M27" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="N27" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="O27" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="P27" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="13"/>
+    <row r="28" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B28" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37">
+        <f>E27</f>
+        <v>41</v>
+      </c>
+      <c r="F28" s="47">
+        <f>$E$28-($E$28/11*1)</f>
+        <v>37.272727272727273</v>
+      </c>
+      <c r="G28" s="47">
+        <f>$E$28-($E$28/11*2)</f>
+        <v>33.545454545454547</v>
+      </c>
+      <c r="H28" s="47">
+        <f>$E$28-($E$28/11*3)</f>
+        <v>29.81818181818182</v>
+      </c>
+      <c r="I28" s="48">
+        <f>$E$28-($E$28/11*4)</f>
+        <v>26.090909090909093</v>
+      </c>
+      <c r="J28" s="48">
+        <f>$E$28-($E$28/11*5)</f>
+        <v>22.363636363636363</v>
+      </c>
+      <c r="K28" s="48">
+        <f>$E$28-($E$28/11*6)</f>
+        <v>18.636363636363637</v>
+      </c>
+      <c r="L28" s="48">
+        <f>$E$28-($E$28/11*7)</f>
+        <v>14.90909090909091</v>
+      </c>
+      <c r="M28" s="48">
+        <f>$E$28-($E$28/11*8)</f>
+        <v>11.181818181818183</v>
+      </c>
+      <c r="N28" s="48">
+        <f>$E$28-($E$28/11*9)</f>
+        <v>7.4545454545454533</v>
+      </c>
+      <c r="O28" s="48">
+        <f>$E$28-($E$28/11*10)</f>
+        <v>3.7272727272727266</v>
+      </c>
+      <c r="P28" s="38">
+        <f>$E$28-($E$28/11*11)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="40"/>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="13"/>
+    <row r="31" spans="2:16">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="38"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="38"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="38"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="38"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="33"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="38"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="33"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="38"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="33"/>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="38"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="33"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="38"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="33"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="38"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="33"/>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="38"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="33"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="38"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="33"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="38"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
-      <c r="C24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="38"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="38"/>
-    </row>
-    <row r="26" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23">
-        <f>SUM(E6:E26)</f>
-        <v>6</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
-    </row>
-    <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+    <row r="32" spans="2:16">
+      <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="15"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1619,11 +2912,23 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C31" r:id="rId1" xr:uid="{48C55FB6-BD0E-B245-ACBB-47080DB84C6A}"/>
+    <hyperlink ref="C32" r:id="rId1" xr:uid="{5D395495-5B32-46D5-BFE5-896CDC6DC172}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sprint Burndown chart.xlsx
+++ b/Sprint Burndown chart.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkron\Documents\GitHub\HVLtopia-31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkron/Documents/GitHub/HVLtopia/HVLtopia-31/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03F709B-093E-4DE8-90A8-43036D717DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3DE60-9827-5145-9805-20AF3BBAC9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{90D799E6-531E-E847-ADA3-29FFA9E53BDB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{90D799E6-531E-E847-ADA3-29FFA9E53BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$27:$P$27</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$28:$P$28</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -175,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,61 +589,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,9 +606,6 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,6 +619,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,22 +659,45 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,7 +721,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -799,7 +795,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -865,7 +861,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -905,37 +901,37 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +999,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1138,7 +1134,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1994926848"/>
@@ -1196,7 +1192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1994925888"/>
@@ -1237,7 +1233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1285,7 +1281,7 @@
       <a:pPr>
         <a:defRPr sz="1800"/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1871,7 +1867,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2189,171 +2185,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031C03A7-9A6B-F24E-88ED-0C80ADC05365}">
   <dimension ref="B1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:16" ht="27" thickBot="1">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="12">
         <v>45526</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="12">
         <v>45533</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="12">
         <v>45540</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="12">
         <v>45547</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="12">
         <v>45554</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="12">
         <v>45561</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="12">
         <v>45568</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="12">
         <v>45575</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="12">
         <v>45582</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="12">
         <v>45589</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="13">
         <v>45596</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="30" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="40"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="44" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="22">
         <v>2</v>
       </c>
       <c r="F6" s="1">
@@ -2370,13 +2366,13 @@
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="14"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="22">
         <v>5</v>
       </c>
       <c r="F7" s="1">
@@ -2393,13 +2389,13 @@
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="29"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2412,15 +2408,15 @@
       <c r="O8" s="2"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="13"/>
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="26"/>
+      <c r="C9" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="22">
         <v>2</v>
       </c>
       <c r="F9" s="1"/>
@@ -2435,13 +2431,13 @@
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="14"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="22">
         <v>5</v>
       </c>
       <c r="F10" s="1"/>
@@ -2456,13 +2452,13 @@
       <c r="O10" s="2"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="16"/>
-      <c r="C11" s="19"/>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="29"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2475,15 +2471,15 @@
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="13"/>
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="26"/>
+      <c r="C12" s="44" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="22">
         <v>2</v>
       </c>
       <c r="F12" s="4"/>
@@ -2498,13 +2494,13 @@
       <c r="O12" s="3"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="14"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="22">
         <v>5</v>
       </c>
       <c r="F13" s="4"/>
@@ -2519,13 +2515,13 @@
       <c r="O13" s="3"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="29"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2538,15 +2534,15 @@
       <c r="O14" s="3"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="12"/>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="25"/>
+      <c r="C15" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2559,13 +2555,13 @@
       <c r="O15" s="3"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="25"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="22">
         <v>5</v>
       </c>
       <c r="F16" s="4"/>
@@ -2580,13 +2576,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="25"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2599,16 +2595,18 @@
       <c r="O17" s="3"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="12"/>
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="25"/>
+      <c r="C18" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
@@ -2620,13 +2618,13 @@
       <c r="O18" s="3"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="25"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="22">
         <v>5</v>
       </c>
       <c r="F19" s="4"/>
@@ -2641,13 +2639,13 @@
       <c r="O19" s="3"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="25"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2660,15 +2658,15 @@
       <c r="O20" s="3"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="12"/>
-      <c r="C21" s="11" t="s">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="25"/>
+      <c r="C21" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2681,13 +2679,13 @@
       <c r="O21" s="3"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="25"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="22">
         <v>5</v>
       </c>
       <c r="F22" s="4"/>
@@ -2702,13 +2700,13 @@
       <c r="O22" s="3"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="25"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2721,15 +2719,15 @@
       <c r="O23" s="3"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="13"/>
-      <c r="C24" s="17" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="26"/>
+      <c r="C24" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2742,13 +2740,13 @@
       <c r="O24" s="3"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="14"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="22">
         <v>5</v>
       </c>
       <c r="F25" s="4"/>
@@ -2763,13 +2761,13 @@
       <c r="O25" s="3"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="2:16" ht="16.5" thickBot="1">
-      <c r="B26" s="15"/>
-      <c r="C26" s="20"/>
+    <row r="26" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -2782,128 +2780,127 @@
       <c r="O26" s="6"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="40" t="s">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36">
+      <c r="C27" s="34"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19">
         <f>SUM(E6:E26)</f>
         <v>41</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="19">
         <f>E27-SUM(F6:F26)</f>
-        <v>39</v>
-      </c>
-      <c r="G27" s="36">
+        <v>37</v>
+      </c>
+      <c r="G27" s="19">
         <f t="shared" ref="G27:P27" si="0">F27-SUM(G6:G26)</f>
-        <v>39</v>
-      </c>
-      <c r="H27" s="36">
+        <v>37</v>
+      </c>
+      <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="I27" s="36">
+        <v>37</v>
+      </c>
+      <c r="I27" s="19">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J27" s="36">
+        <v>37</v>
+      </c>
+      <c r="J27" s="19">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="K27" s="36">
+        <v>37</v>
+      </c>
+      <c r="K27" s="19">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="L27" s="36">
+        <v>37</v>
+      </c>
+      <c r="L27" s="19">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="M27" s="36">
+        <v>37</v>
+      </c>
+      <c r="M27" s="19">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="N27" s="36">
+        <v>37</v>
+      </c>
+      <c r="N27" s="19">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="O27" s="36">
+        <v>37</v>
+      </c>
+      <c r="O27" s="19">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="P27" s="36">
+        <v>37</v>
+      </c>
+      <c r="P27" s="19">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="16.5" thickBot="1">
-      <c r="B28" s="42" t="s">
+    <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37">
+      <c r="C28" s="36"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
         <f>E27</f>
         <v>41</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="23">
         <f>$E$28-($E$28/11*1)</f>
         <v>37.272727272727273</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="23">
         <f>$E$28-($E$28/11*2)</f>
         <v>33.545454545454547</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="23">
         <f>$E$28-($E$28/11*3)</f>
         <v>29.81818181818182</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="24">
         <f>$E$28-($E$28/11*4)</f>
         <v>26.090909090909093</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="24">
         <f>$E$28-($E$28/11*5)</f>
         <v>22.363636363636363</v>
       </c>
-      <c r="K28" s="48">
+      <c r="K28" s="24">
         <f>$E$28-($E$28/11*6)</f>
         <v>18.636363636363637</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="24">
         <f>$E$28-($E$28/11*7)</f>
         <v>14.90909090909091</v>
       </c>
-      <c r="M28" s="48">
+      <c r="M28" s="24">
         <f>$E$28-($E$28/11*8)</f>
         <v>11.181818181818183</v>
       </c>
-      <c r="N28" s="48">
+      <c r="N28" s="24">
         <f>$E$28-($E$28/11*9)</f>
         <v>7.4545454545454533</v>
       </c>
-      <c r="O28" s="48">
+      <c r="O28" s="24">
         <f>$E$28-($E$28/11*10)</f>
         <v>3.7272727272727266</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="21">
         <f>$E$28-($E$28/11*11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:H2"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="C3:C5"/>
@@ -2923,6 +2920,7 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Sprint Burndown chart.xlsx
+++ b/Sprint Burndown chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkron/Documents/GitHub/HVLtopia/HVLtopia-31/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3DE60-9827-5145-9805-20AF3BBAC9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DBF56C-C6EE-A34B-95DA-9CBE4E6A3DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{90D799E6-531E-E847-ADA3-29FFA9E53BDB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Backlog ID</t>
   </si>
@@ -161,17 +161,17 @@
     <t>Enhetstesting</t>
   </si>
   <si>
-    <t>ID 23</t>
-  </si>
-  <si>
     <t>Sprint Burndown Chart</t>
+  </si>
+  <si>
+    <t>BRH - 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,8 +213,14 @@
       <color theme="0"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +257,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -571,24 +601,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,28 +631,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,52 +692,80 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -810,7 +883,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$27</c:f>
+              <c:f>Sheet1!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -893,45 +966,45 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$27:$P$27</c:f>
+              <c:f>Sheet1!$E$30:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +1021,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$28</c:f>
+              <c:f>Sheet1!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1031,42 +1104,42 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$28:$P$28</c:f>
+              <c:f>Sheet1!$E$31:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>41</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.272727272727273</c:v>
+                  <c:v>73.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.545454545454547</c:v>
+                  <c:v>66.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.81818181818182</c:v>
+                  <c:v>58.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.090909090909093</c:v>
+                  <c:v>51.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.363636363636363</c:v>
+                  <c:v>44.181818181818187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>36.81818181818182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.90909090909091</c:v>
+                  <c:v>29.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.181818181818183</c:v>
+                  <c:v>22.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4545454545454533</c:v>
+                  <c:v>14.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7272727272727266</c:v>
+                  <c:v>7.363636363636374</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>0</c:v>
@@ -1830,15 +1903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:colOff>25458</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>616323</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>621264</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60311</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2183,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031C03A7-9A6B-F24E-88ED-0C80ADC05365}">
-  <dimension ref="B1:P32"/>
+  <dimension ref="B1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,715 +2273,927 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="3">
         <v>45526</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="3">
         <v>45533</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="3">
         <v>45540</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="3">
         <v>45547</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="3">
         <v>45554</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="3">
         <v>45561</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="3">
         <v>45568</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="3">
         <v>45575</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="3">
         <v>45582</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="3">
         <v>45589</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="4">
         <v>45596</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="40"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="34">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="5"/>
+      <c r="F6" s="37">
+        <v>1</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37">
+        <v>1</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="22">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="35">
+        <v>9</v>
+      </c>
+      <c r="F7" s="36">
         <v>2</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="5"/>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37">
+        <v>1</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37">
+        <v>2</v>
+      </c>
+      <c r="L7" s="37">
+        <v>1</v>
+      </c>
+      <c r="M7" s="38">
+        <v>1</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="29"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="5"/>
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="38">
+        <v>1</v>
+      </c>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="26"/>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="34">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="5"/>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="42">
+        <v>1</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="45"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="22">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="5"/>
+      <c r="E10" s="35">
+        <v>8</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42">
+        <v>1</v>
+      </c>
+      <c r="H10" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="42">
+        <v>1</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="42">
+        <v>1</v>
+      </c>
+      <c r="L10" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="44">
+        <v>1</v>
+      </c>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="5"/>
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44">
+        <v>1</v>
+      </c>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="26"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="35">
         <v>2</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="10"/>
+      <c r="F12" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="22">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="10"/>
+      <c r="E13" s="35">
+        <v>8</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37">
+        <v>2</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="37">
+        <v>2</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37">
+        <v>2</v>
+      </c>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="10"/>
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="37">
+        <v>2</v>
+      </c>
+      <c r="L14" s="37">
+        <v>1</v>
+      </c>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="25"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="10"/>
+      <c r="E15" s="35">
+        <v>2</v>
+      </c>
+      <c r="F15" s="42">
+        <v>1</v>
+      </c>
+      <c r="G15" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="25"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="22">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="10"/>
+      <c r="E16" s="35">
+        <v>10</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="42">
+        <v>1</v>
+      </c>
+      <c r="I16" s="42">
+        <v>2</v>
+      </c>
+      <c r="J16" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="42">
+        <v>2</v>
+      </c>
+      <c r="L16" s="42">
+        <v>2.5</v>
+      </c>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="25"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="10"/>
+      <c r="E17" s="35">
+        <v>1</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="47">
+        <v>1</v>
+      </c>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="25"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="4">
+      <c r="E18" s="35">
         <v>2</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="10"/>
+      <c r="F18" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="25"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="22">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="10"/>
+      <c r="E19" s="35">
+        <v>8</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="37">
+        <v>1</v>
+      </c>
+      <c r="H19" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="37">
+        <v>2</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="37">
+        <v>1</v>
+      </c>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="25"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="10"/>
+      <c r="E20" s="35">
+        <v>1</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="25"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="10"/>
+      <c r="E21" s="35">
+        <v>2</v>
+      </c>
+      <c r="F21" s="42">
+        <v>2</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="1" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="22">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="10"/>
+      <c r="E22" s="35">
+        <v>8</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42">
+        <v>1</v>
+      </c>
+      <c r="H22" s="42">
+        <v>2</v>
+      </c>
+      <c r="I22" s="42">
+        <v>1</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="42">
+        <v>2</v>
+      </c>
+      <c r="L22" s="42">
+        <v>2</v>
+      </c>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="25"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="1" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="10"/>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="47">
+        <v>1</v>
+      </c>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="26"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="10"/>
+      <c r="E24" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="36"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="22">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="10"/>
+      <c r="E25" s="35">
+        <v>3</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="M25" s="40">
+        <v>1</v>
+      </c>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
     </row>
     <row r="26" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="7"/>
+      <c r="E26" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="46">
+        <v>1</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="27"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="46">
+        <v>5</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47">
+        <v>2</v>
+      </c>
+      <c r="O28" s="47">
+        <v>2</v>
+      </c>
+      <c r="P28" s="48"/>
+    </row>
+    <row r="29" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="46">
+        <v>2</v>
+      </c>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19">
-        <f>SUM(E6:E26)</f>
-        <v>41</v>
-      </c>
-      <c r="F27" s="19">
-        <f>E27-SUM(F6:F26)</f>
-        <v>37</v>
-      </c>
-      <c r="G27" s="19">
-        <f t="shared" ref="G27:P27" si="0">F27-SUM(G6:G26)</f>
-        <v>37</v>
-      </c>
-      <c r="H27" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="I27" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="J27" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="K27" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="L27" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M27" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="N27" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="O27" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="P27" s="19">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="C30" s="16"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10">
+        <f>SUM(E6:E29)</f>
+        <v>81</v>
+      </c>
+      <c r="F30" s="10">
+        <f>E30-SUM(F6:F29)</f>
+        <v>69.5</v>
+      </c>
+      <c r="G30" s="10">
+        <f>F30-SUM(G6:G29)</f>
+        <v>59.5</v>
+      </c>
+      <c r="H30" s="10">
+        <f>G30-SUM(H6:H29)</f>
+        <v>50</v>
+      </c>
+      <c r="I30" s="10">
+        <f>H30-SUM(I6:I29)</f>
+        <v>42.5</v>
+      </c>
+      <c r="J30" s="10">
+        <f>I30-SUM(J6:J29)</f>
+        <v>39</v>
+      </c>
+      <c r="K30" s="10">
+        <f>J30-SUM(K6:K29)</f>
+        <v>29</v>
+      </c>
+      <c r="L30" s="10">
+        <f>K30-SUM(L6:L29)</f>
+        <v>15.5</v>
+      </c>
+      <c r="M30" s="10">
+        <f>L30-SUM(M6:M29)</f>
+        <v>8</v>
+      </c>
+      <c r="N30" s="10">
+        <f>M30-SUM(N6:N29)</f>
+        <v>5.5</v>
+      </c>
+      <c r="O30" s="10">
+        <f>N30-SUM(O6:O29)</f>
+        <v>3.5</v>
+      </c>
+      <c r="P30" s="10">
+        <f>O30-SUM(P6:P29)</f>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+    <row r="31" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20">
-        <f>E27</f>
-        <v>41</v>
-      </c>
-      <c r="F28" s="23">
-        <f>$E$28-($E$28/11*1)</f>
-        <v>37.272727272727273</v>
-      </c>
-      <c r="G28" s="23">
-        <f>$E$28-($E$28/11*2)</f>
-        <v>33.545454545454547</v>
-      </c>
-      <c r="H28" s="23">
-        <f>$E$28-($E$28/11*3)</f>
-        <v>29.81818181818182</v>
-      </c>
-      <c r="I28" s="24">
-        <f>$E$28-($E$28/11*4)</f>
-        <v>26.090909090909093</v>
-      </c>
-      <c r="J28" s="24">
-        <f>$E$28-($E$28/11*5)</f>
-        <v>22.363636363636363</v>
-      </c>
-      <c r="K28" s="24">
-        <f>$E$28-($E$28/11*6)</f>
-        <v>18.636363636363637</v>
-      </c>
-      <c r="L28" s="24">
-        <f>$E$28-($E$28/11*7)</f>
-        <v>14.90909090909091</v>
-      </c>
-      <c r="M28" s="24">
-        <f>$E$28-($E$28/11*8)</f>
-        <v>11.181818181818183</v>
-      </c>
-      <c r="N28" s="24">
-        <f>$E$28-($E$28/11*9)</f>
-        <v>7.4545454545454533</v>
-      </c>
-      <c r="O28" s="24">
-        <f>$E$28-($E$28/11*10)</f>
-        <v>3.7272727272727266</v>
-      </c>
-      <c r="P28" s="21">
-        <f>$E$28-($E$28/11*11)</f>
+      <c r="C31" s="18"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11">
+        <f>E30</f>
+        <v>81</v>
+      </c>
+      <c r="F31" s="13">
+        <f>$E$31-($E$31/11*1)</f>
+        <v>73.63636363636364</v>
+      </c>
+      <c r="G31" s="13">
+        <f>$E$31-($E$31/11*2)</f>
+        <v>66.27272727272728</v>
+      </c>
+      <c r="H31" s="13">
+        <f>$E$31-($E$31/11*3)</f>
+        <v>58.909090909090907</v>
+      </c>
+      <c r="I31" s="14">
+        <f>$E$31-($E$31/11*4)</f>
+        <v>51.545454545454547</v>
+      </c>
+      <c r="J31" s="14">
+        <f>$E$31-($E$31/11*5)</f>
+        <v>44.181818181818187</v>
+      </c>
+      <c r="K31" s="14">
+        <f>$E$31-($E$31/11*6)</f>
+        <v>36.81818181818182</v>
+      </c>
+      <c r="L31" s="14">
+        <f>$E$31-($E$31/11*7)</f>
+        <v>29.454545454545453</v>
+      </c>
+      <c r="M31" s="14">
+        <f>$E$31-($E$31/11*8)</f>
+        <v>22.090909090909093</v>
+      </c>
+      <c r="N31" s="14">
+        <f>$E$31-($E$31/11*9)</f>
+        <v>14.727272727272734</v>
+      </c>
+      <c r="O31" s="14">
+        <f>$E$31-($E$31/11*10)</f>
+        <v>7.363636363636374</v>
+      </c>
+      <c r="P31" s="12">
+        <f>$E$31-($E$31/11*11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C32" s="9" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+  <mergeCells count="22">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2917,16 +3202,9 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1" xr:uid="{5D395495-5B32-46D5-BFE5-896CDC6DC172}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>